--- a/Dow 30/Apple DCF.xlsx
+++ b/Dow 30/Apple DCF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60002675-D07D-40D0-8D71-FB2FBA8E8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182FAF8-D769-4BC2-A771-C33962911229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -193,8 +193,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -384,69 +384,69 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,27 +795,27 @@
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -833,39 +833,39 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
         <v>2017</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>2018</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>2019</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>2020</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <v>2021</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>2022</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>2023</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="17">
         <v>2024</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>2025</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>2026</v>
       </c>
     </row>
@@ -882,46 +882,46 @@
       <c r="E7" s="2">
         <v>61344</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>70898</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="41">
         <v>63930</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="41">
         <v>66288</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="41">
         <v>108900</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="46">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="42">
         <v>122700</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="41">
         <v>133500</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="41">
         <v>135700</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="41">
         <v>142200</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="41">
         <v>153300</v>
       </c>
     </row>
@@ -930,23 +930,23 @@
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="46">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42">
         <v>119500</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="43">
         <v>122500</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="43">
         <v>125700</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="43">
         <v>124000</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="43">
         <v>141000</v>
       </c>
     </row>
@@ -955,23 +955,23 @@
         <v>6</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="46">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="42">
         <v>116500</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="43">
         <v>109300</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="43">
         <v>112900</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="43">
         <v>122700</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="43">
         <v>128900</v>
       </c>
     </row>
@@ -1028,34 +1028,34 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="48">
+      <c r="E12" s="44">
         <v>10157</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="45">
         <v>10903</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="45">
         <v>12547</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="45">
         <v>11056</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="45">
         <v>11284</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="44">
         <v>11796</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="45">
         <v>11789</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="45">
         <v>12101</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="45">
         <v>17427</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="45">
         <v>13159</v>
       </c>
     </row>
@@ -1063,49 +1063,49 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="46">
         <v>12451</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="43">
         <v>13313</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="43">
         <v>10495</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="43">
         <v>7309</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="47">
         <v>11085</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="2">
         <v>12173</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="43">
         <v>20282</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="43">
         <v>19363</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="43">
         <v>20428</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="43">
         <v>21882</v>
       </c>
     </row>
@@ -1114,23 +1114,23 @@
         <v>5</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="2">
         <v>10731</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="43">
         <v>12415</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="43">
         <v>13295</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="43">
         <v>15436</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="43">
         <v>15385</v>
       </c>
     </row>
@@ -1140,24 +1140,24 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="52">
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="48">
         <v>9540</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="49">
         <v>10000</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="49">
         <v>10686</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="49">
         <v>11010</v>
       </c>
-      <c r="N16" s="53">
+      <c r="N16" s="49">
         <v>11120</v>
       </c>
     </row>
@@ -1168,31 +1168,31 @@
       <c r="E17" s="2">
         <v>27877</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="43">
         <v>30143</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="43">
         <v>27216</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="43">
         <v>37393</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="43">
         <v>36143</v>
       </c>
       <c r="J17" s="2">
         <v>33324</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="43">
         <v>31591</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="43">
         <v>30233</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="43">
         <v>29205</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="43">
         <v>26080</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1225,95 +1225,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="26" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="22">
         <v>0</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>1</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <v>2</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="22">
         <v>3</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <v>4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="27" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="I6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="39">
         <f>'Street Estimates'!I7</f>
         <v>108900</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="39">
         <f>'Street Estimates'!J9</f>
         <v>119500</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="39">
         <f>'Street Estimates'!K9</f>
         <v>122500</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="39">
         <f>'Street Estimates'!L9</f>
         <v>125700</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="39">
         <f>'Street Estimates'!M9</f>
         <v>124000</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="39">
         <f>'Street Estimates'!N9</f>
         <v>141000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="I7" s="27" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="12">
@@ -1342,134 +1342,134 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28">
         <v>1.11E-2</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="39">
         <f>'Street Estimates'!I12</f>
         <v>11284</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="39">
         <f>'Street Estimates'!J12</f>
         <v>11796</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="39">
         <f>'Street Estimates'!K12</f>
         <v>11789</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="39">
         <f>'Street Estimates'!L12</f>
         <v>12101</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="39">
         <f>'Street Estimates'!M12</f>
         <v>17427</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="39">
         <f>'Street Estimates'!N12</f>
         <v>13159</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>20.6</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="39">
         <f>-('Street Estimates'!I13)</f>
         <v>-11085</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="39">
         <f>-'Street Estimates'!J15</f>
         <v>-10731</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="39">
         <f>-'Street Estimates'!K15</f>
         <v>-12415</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="39">
         <f>-'Street Estimates'!L15</f>
         <v>-13295</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="39">
         <f>-'Street Estimates'!M15</f>
         <v>-15436</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="39">
         <f>-'Street Estimates'!N15</f>
         <v>-15385</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="40">
         <f>'Street Estimates'!I17</f>
         <v>36143</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="40">
         <f>'Street Estimates'!J17</f>
         <v>33324</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="40">
         <f>'Street Estimates'!K17</f>
         <v>31591</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="40">
         <f>'Street Estimates'!L17</f>
         <v>30233</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N10" s="40">
         <f>'Street Estimates'!M17</f>
         <v>29205</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="40">
         <f>'Street Estimates'!N17</f>
         <v>26080</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="12">
@@ -1498,143 +1498,143 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29">
         <v>1.19</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="31">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="12">
         <v>63090</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="12">
         <v>136500</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="28">
         <f>G12+G14*(G15-G12)</f>
         <v>2.8777E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <f>G17/SUM(G16:G17)</f>
         <v>0.68390199909815119</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="28">
         <f>G16/SUM(G16:G17)</f>
         <v>0.31609800090184881</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="41">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="37">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>3.7557617766421164E-2</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="12">
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="12">
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="35" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="12">
@@ -1661,61 +1661,61 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <f>AVERAGE(G27:G28)</f>
         <v>4252895.5038620522</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="27">
         <f>1/(1+$G$23)^K5</f>
         <v>0.96380189675897465</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="27">
         <f>1/(1+$G$23)^L5</f>
         <v>0.92891409619619736</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="27">
         <f>1/(1+$G$23)^M5</f>
         <v>0.89528916784004364</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="27">
         <f>1/(1+$G$23)^N5</f>
         <v>0.86288139811199804</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="27">
         <f>1/(1+$G$23)^O5</f>
         <v>0.8316467281783797</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="35" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="12">
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="35" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="12">
@@ -1749,77 +1749,77 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="36">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="32">
         <f>SUM(G33:K34)</f>
         <v>4128058.6145626525</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="50">
         <v>62640</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="50">
         <v>6000</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="44">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="40">
         <v>109100</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="F42" s="35">
+      <c r="C42" s="50"/>
+      <c r="F42" s="31">
         <f>F35+F38-F40-F41</f>
         <v>4075598.6145626525</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="44">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="40">
         <v>16530</v>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       <c r="B45" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="27">
         <f>F42/F44</f>
         <v>246.55768993119494</v>
       </c>
@@ -1837,5 +1837,6 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dow 30/Apple DCF.xlsx
+++ b/Dow 30/Apple DCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182FAF8-D769-4BC2-A771-C33962911229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BD9B8-9F9F-433C-92F1-5D0A0FF7E9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{08B3BD42-F7E2-4899-946D-496009338604}"/>
   </bookViews>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -390,8 +390,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -762,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97481FEC-A471-4B7A-BB02-7A12F1505144}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,46 +774,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
+      <c r="A1" s="10"/>
       <c r="E1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4">
         <v>1</v>
       </c>
@@ -833,366 +831,362 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
         <v>2017</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>2018</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>2019</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>2020</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>2021</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>2022</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>2023</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <v>2024</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>2025</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>2026</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E6" s="8"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2">
+        <v>61344</v>
+      </c>
+      <c r="F6" s="39">
+        <v>70898</v>
+      </c>
+      <c r="G6" s="39">
+        <v>63930</v>
+      </c>
+      <c r="H6" s="39">
+        <v>66288</v>
+      </c>
+      <c r="I6" s="39">
+        <v>108900</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2">
-        <v>61344</v>
-      </c>
-      <c r="F7" s="41">
-        <v>70898</v>
-      </c>
-      <c r="G7" s="41">
-        <v>63930</v>
-      </c>
-      <c r="H7" s="41">
-        <v>66288</v>
-      </c>
-      <c r="I7" s="41">
-        <v>108900</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40">
+        <v>122700</v>
+      </c>
+      <c r="K7" s="39">
+        <v>133500</v>
+      </c>
+      <c r="L7" s="39">
+        <v>135700</v>
+      </c>
+      <c r="M7" s="39">
+        <v>142200</v>
+      </c>
+      <c r="N7" s="39">
+        <v>153300</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="42">
-        <v>122700</v>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40">
+        <v>119500</v>
       </c>
       <c r="K8" s="41">
-        <v>133500</v>
+        <v>122500</v>
       </c>
       <c r="L8" s="41">
-        <v>135700</v>
+        <v>125700</v>
       </c>
       <c r="M8" s="41">
-        <v>142200</v>
+        <v>124000</v>
       </c>
       <c r="N8" s="41">
-        <v>153300</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="42">
-        <v>119500</v>
-      </c>
-      <c r="K9" s="43">
-        <v>122500</v>
-      </c>
-      <c r="L9" s="43">
-        <v>125700</v>
-      </c>
-      <c r="M9" s="43">
-        <v>124000</v>
-      </c>
-      <c r="N9" s="43">
-        <v>141000</v>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40">
+        <v>116500</v>
+      </c>
+      <c r="K9" s="41">
+        <v>109300</v>
+      </c>
+      <c r="L9" s="41">
+        <v>112900</v>
+      </c>
+      <c r="M9" s="41">
+        <v>122700</v>
+      </c>
+      <c r="N9" s="41">
+        <v>128900</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42">
-        <v>116500</v>
-      </c>
-      <c r="K10" s="43">
-        <v>109300</v>
-      </c>
-      <c r="L10" s="43">
-        <v>112900</v>
-      </c>
-      <c r="M10" s="43">
-        <v>122700</v>
-      </c>
-      <c r="N10" s="43">
-        <v>128900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9">
-        <f>24.6%*E7</f>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
+        <f>24.6%*E6</f>
         <v>15090.624000000002</v>
       </c>
-      <c r="F11" s="10">
-        <f>18.3%*F7</f>
+      <c r="F10" s="8">
+        <f>18.3%*F6</f>
         <v>12974.333999999999</v>
       </c>
-      <c r="G11" s="10">
-        <f>15.9%*G7</f>
+      <c r="G10" s="8">
+        <f>15.9%*G6</f>
         <v>10164.870000000001</v>
       </c>
-      <c r="H11" s="10">
-        <f>14.4%*H7</f>
+      <c r="H10" s="8">
+        <f>14.4%*H6</f>
         <v>9545.4720000000016</v>
       </c>
-      <c r="I11" s="11">
-        <f>13.3%*I7</f>
+      <c r="I10" s="9">
+        <f>13.3%*I6</f>
         <v>14483.7</v>
       </c>
-      <c r="J11" s="10">
-        <f>18%*J9</f>
+      <c r="J10" s="8">
+        <f>18%*J8</f>
         <v>21510</v>
       </c>
-      <c r="K11" s="10">
-        <f t="shared" ref="K11:N11" si="0">18%*K9</f>
+      <c r="K10" s="8">
+        <f t="shared" ref="K10:N10" si="0">18%*K8</f>
         <v>22050</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>22626</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
         <v>22320</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N10" s="8">
         <f t="shared" si="0"/>
         <v>25380</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="42">
+        <v>10157</v>
+      </c>
+      <c r="F11" s="43">
+        <v>10903</v>
+      </c>
+      <c r="G11" s="43">
+        <v>12547</v>
+      </c>
+      <c r="H11" s="43">
+        <v>11056</v>
+      </c>
+      <c r="I11" s="43">
+        <v>11284</v>
+      </c>
+      <c r="J11" s="42">
+        <v>11796</v>
+      </c>
+      <c r="K11" s="43">
+        <v>11789</v>
+      </c>
+      <c r="L11" s="43">
+        <v>12101</v>
+      </c>
+      <c r="M11" s="43">
+        <v>17427</v>
+      </c>
+      <c r="N11" s="43">
+        <v>13159</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="44">
-        <v>10157</v>
-      </c>
-      <c r="F12" s="45">
-        <v>10903</v>
-      </c>
-      <c r="G12" s="45">
-        <v>12547</v>
-      </c>
-      <c r="H12" s="45">
-        <v>11056</v>
+        <v>12451</v>
+      </c>
+      <c r="F12" s="41">
+        <v>13313</v>
+      </c>
+      <c r="G12" s="41">
+        <v>10495</v>
+      </c>
+      <c r="H12" s="41">
+        <v>7309</v>
       </c>
       <c r="I12" s="45">
-        <v>11284</v>
-      </c>
-      <c r="J12" s="44">
-        <v>11796</v>
-      </c>
-      <c r="K12" s="45">
-        <v>11789</v>
-      </c>
-      <c r="L12" s="45">
-        <v>12101</v>
-      </c>
-      <c r="M12" s="45">
-        <v>17427</v>
-      </c>
-      <c r="N12" s="45">
-        <v>13159</v>
-      </c>
+        <v>11085</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="46">
-        <v>12451</v>
-      </c>
-      <c r="F13" s="43">
-        <v>13313</v>
-      </c>
-      <c r="G13" s="43">
-        <v>10495</v>
-      </c>
-      <c r="H13" s="43">
-        <v>7309</v>
-      </c>
-      <c r="I13" s="47">
-        <v>11085</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="2">
+        <v>12173</v>
+      </c>
+      <c r="K13" s="41">
+        <v>20282</v>
+      </c>
+      <c r="L13" s="41">
+        <v>19363</v>
+      </c>
+      <c r="M13" s="41">
+        <v>20428</v>
+      </c>
+      <c r="N13" s="41">
+        <v>21882</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="2">
-        <v>12173</v>
-      </c>
-      <c r="K14" s="43">
-        <v>20282</v>
-      </c>
-      <c r="L14" s="43">
-        <v>19363</v>
-      </c>
-      <c r="M14" s="43">
-        <v>20428</v>
-      </c>
-      <c r="N14" s="43">
-        <v>21882</v>
+        <v>10731</v>
+      </c>
+      <c r="K14" s="41">
+        <v>12415</v>
+      </c>
+      <c r="L14" s="41">
+        <v>13295</v>
+      </c>
+      <c r="M14" s="41">
+        <v>15436</v>
+      </c>
+      <c r="N14" s="41">
+        <v>15385</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="2">
-        <v>10731</v>
-      </c>
-      <c r="K15" s="43">
-        <v>12415</v>
-      </c>
-      <c r="L15" s="43">
-        <v>13295</v>
-      </c>
-      <c r="M15" s="43">
-        <v>15436</v>
-      </c>
-      <c r="N15" s="43">
-        <v>15385</v>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="46">
+        <v>9540</v>
+      </c>
+      <c r="K15" s="47">
+        <v>10000</v>
+      </c>
+      <c r="L15" s="47">
+        <v>10686</v>
+      </c>
+      <c r="M15" s="47">
+        <v>11010</v>
+      </c>
+      <c r="N15" s="47">
+        <v>11120</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48">
-        <v>9540</v>
-      </c>
-      <c r="K16" s="49">
-        <v>10000</v>
-      </c>
-      <c r="L16" s="49">
-        <v>10686</v>
-      </c>
-      <c r="M16" s="49">
-        <v>11010</v>
-      </c>
-      <c r="N16" s="49">
-        <v>11120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E16" s="2">
         <v>27877</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F16" s="41">
         <v>30143</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G16" s="41">
         <v>27216</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H16" s="41">
         <v>37393</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I16" s="41">
         <v>36143</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J16" s="2">
         <v>33324</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K16" s="41">
         <v>31591</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L16" s="41">
         <v>30233</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M16" s="41">
         <v>29205</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N16" s="41">
         <v>26080</v>
       </c>
     </row>
@@ -1210,624 +1204,624 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2B475-E092-48FC-990D-00D6632DE395}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="12"/>
-    <col min="6" max="7" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="5" width="9.140625" style="10"/>
+    <col min="6" max="7" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="I5" s="23" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="I5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>0</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>1</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>2</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <v>3</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>4</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="I6" s="24" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="I6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="39">
-        <f>'Street Estimates'!I7</f>
+      <c r="J6" s="37">
+        <f>'Street Estimates'!I6</f>
         <v>108900</v>
       </c>
-      <c r="K6" s="39">
-        <f>'Street Estimates'!J9</f>
+      <c r="K6" s="37">
+        <f>'Street Estimates'!J8</f>
         <v>119500</v>
       </c>
-      <c r="L6" s="39">
-        <f>'Street Estimates'!K9</f>
+      <c r="L6" s="37">
+        <f>'Street Estimates'!K8</f>
         <v>122500</v>
       </c>
-      <c r="M6" s="39">
-        <f>'Street Estimates'!L9</f>
+      <c r="M6" s="37">
+        <f>'Street Estimates'!L8</f>
         <v>125700</v>
       </c>
-      <c r="N6" s="39">
-        <f>'Street Estimates'!M9</f>
+      <c r="N6" s="37">
+        <f>'Street Estimates'!M8</f>
         <v>124000</v>
       </c>
-      <c r="O6" s="39">
-        <f>'Street Estimates'!N9</f>
+      <c r="O6" s="37">
+        <f>'Street Estimates'!N8</f>
         <v>141000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="I7" s="24" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="12">
-        <f>-'Street Estimates'!I11</f>
+      <c r="J7" s="10">
+        <f>-'Street Estimates'!I10</f>
         <v>-14483.7</v>
       </c>
-      <c r="K7" s="12">
-        <f>-'Street Estimates'!J11</f>
+      <c r="K7" s="10">
+        <f>-'Street Estimates'!J10</f>
         <v>-21510</v>
       </c>
-      <c r="L7" s="12">
-        <f>-'Street Estimates'!K11</f>
+      <c r="L7" s="10">
+        <f>-'Street Estimates'!K10</f>
         <v>-22050</v>
       </c>
-      <c r="M7" s="12">
-        <f>-'Street Estimates'!L11</f>
+      <c r="M7" s="10">
+        <f>-'Street Estimates'!L10</f>
         <v>-22626</v>
       </c>
-      <c r="N7" s="12">
-        <f>-'Street Estimates'!M11</f>
+      <c r="N7" s="10">
+        <f>-'Street Estimates'!M10</f>
         <v>-22320</v>
       </c>
-      <c r="O7" s="12">
-        <f>-'Street Estimates'!N11</f>
+      <c r="O7" s="10">
+        <f>-'Street Estimates'!N10</f>
         <v>-25380</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26">
         <v>1.11E-2</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="39">
-        <f>'Street Estimates'!I12</f>
+      <c r="J8" s="37">
+        <f>'Street Estimates'!I11</f>
         <v>11284</v>
       </c>
-      <c r="K8" s="39">
-        <f>'Street Estimates'!J12</f>
+      <c r="K8" s="37">
+        <f>'Street Estimates'!J11</f>
         <v>11796</v>
       </c>
-      <c r="L8" s="39">
-        <f>'Street Estimates'!K12</f>
+      <c r="L8" s="37">
+        <f>'Street Estimates'!K11</f>
         <v>11789</v>
       </c>
-      <c r="M8" s="39">
-        <f>'Street Estimates'!L12</f>
+      <c r="M8" s="37">
+        <f>'Street Estimates'!L11</f>
         <v>12101</v>
       </c>
-      <c r="N8" s="39">
-        <f>'Street Estimates'!M12</f>
+      <c r="N8" s="37">
+        <f>'Street Estimates'!M11</f>
         <v>17427</v>
       </c>
-      <c r="O8" s="39">
-        <f>'Street Estimates'!N12</f>
+      <c r="O8" s="37">
+        <f>'Street Estimates'!N11</f>
         <v>13159</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27">
         <v>20.6</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="39">
-        <f>-('Street Estimates'!I13)</f>
+      <c r="J9" s="37">
+        <f>-('Street Estimates'!I12)</f>
         <v>-11085</v>
       </c>
-      <c r="K9" s="39">
-        <f>-'Street Estimates'!J15</f>
+      <c r="K9" s="37">
+        <f>-'Street Estimates'!J14</f>
         <v>-10731</v>
       </c>
-      <c r="L9" s="39">
-        <f>-'Street Estimates'!K15</f>
+      <c r="L9" s="37">
+        <f>-'Street Estimates'!K14</f>
         <v>-12415</v>
       </c>
-      <c r="M9" s="39">
-        <f>-'Street Estimates'!L15</f>
+      <c r="M9" s="37">
+        <f>-'Street Estimates'!L14</f>
         <v>-13295</v>
       </c>
-      <c r="N9" s="39">
-        <f>-'Street Estimates'!M15</f>
+      <c r="N9" s="37">
+        <f>-'Street Estimates'!M14</f>
         <v>-15436</v>
       </c>
-      <c r="O9" s="39">
-        <f>-'Street Estimates'!N15</f>
+      <c r="O9" s="37">
+        <f>-'Street Estimates'!N14</f>
         <v>-15385</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="40">
-        <f>'Street Estimates'!I17</f>
+      <c r="J10" s="38">
+        <f>'Street Estimates'!I16</f>
         <v>36143</v>
       </c>
-      <c r="K10" s="40">
-        <f>'Street Estimates'!J17</f>
+      <c r="K10" s="38">
+        <f>'Street Estimates'!J16</f>
         <v>33324</v>
       </c>
-      <c r="L10" s="40">
-        <f>'Street Estimates'!K17</f>
+      <c r="L10" s="38">
+        <f>'Street Estimates'!K16</f>
         <v>31591</v>
       </c>
-      <c r="M10" s="40">
-        <f>'Street Estimates'!L17</f>
+      <c r="M10" s="38">
+        <f>'Street Estimates'!L16</f>
         <v>30233</v>
       </c>
-      <c r="N10" s="40">
-        <f>'Street Estimates'!M17</f>
+      <c r="N10" s="38">
+        <f>'Street Estimates'!M16</f>
         <v>29205</v>
       </c>
-      <c r="O10" s="40">
-        <f>'Street Estimates'!N17</f>
+      <c r="O10" s="38">
+        <f>'Street Estimates'!N16</f>
         <v>26080</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="26">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f>SUM(J6:J10)</f>
         <v>130758.3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <f t="shared" ref="K11:O11" si="0">SUM(K6:K10)</f>
         <v>132379</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <f t="shared" si="0"/>
         <v>131415</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <f t="shared" si="0"/>
         <v>132113</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <f t="shared" si="0"/>
         <v>132876</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>139474</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="26">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27">
         <v>1.19</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="26">
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="12">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="10">
         <v>63090</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="12">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="10">
         <v>136500</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="26">
         <f>G12+G14*(G15-G12)</f>
         <v>2.8777E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="26">
         <f>G17/SUM(G16:G17)</f>
         <v>0.68390199909815119</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <f>G16/SUM(G16:G17)</f>
         <v>0.31609800090184881</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="37">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="35">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>3.7557617766421164E-2</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <f>O6+O8</f>
         <v>154159</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f>G26*G9</f>
         <v>3175675.4000000004</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>5330115.6077241041</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31">
         <f>AVERAGE(G27:G28)</f>
         <v>4252895.5038620522</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="25">
         <f>1/(1+$G$23)^K5</f>
         <v>0.96380189675897465</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="25">
         <f>1/(1+$G$23)^L5</f>
         <v>0.92891409619619736</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="25">
         <f>1/(1+$G$23)^M5</f>
         <v>0.89528916784004364</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="25">
         <f>1/(1+$G$23)^N5</f>
         <v>0.86288139811199804</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="25">
         <f>1/(1+$G$23)^O5</f>
         <v>0.8316467281783797</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <f>J11*G32</f>
         <v>126025.09755697903</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <f t="shared" ref="H33:K33" si="1">K11*H32</f>
         <v>122968.71914035641</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="10">
         <f t="shared" si="1"/>
         <v>117654.42599169933</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="10">
         <f t="shared" si="1"/>
         <v>113997.85014877039</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="10">
         <f t="shared" si="1"/>
         <v>110505.89065343038</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="10">
         <f>K32*G29</f>
         <v>3536906.6310714171</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="32">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30">
         <f>SUM(G33:K34)</f>
         <v>4128058.6145626525</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="48">
         <v>62640</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="50"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="48">
         <v>6000</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="40">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="38">
         <v>109100</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="F42" s="31">
+      <c r="C42" s="48"/>
+      <c r="F42" s="29">
         <f>F35+F38-F40-F41</f>
         <v>4075598.6145626525</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="40">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="38">
         <v>16530</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="25">
         <f>F42/F44</f>
         <v>246.55768993119494</v>
       </c>
